--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjob0159</t>
+    <t>Automationjobdigital1007vbf</t>
   </si>
   <si>
     <t>8</t>
@@ -996,13 +996,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1266,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1007vbf</t>
+    <t>Automationjobdigital1107vbf</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1107vbf</t>
+    <t>Automationjobdigital1107vbf01</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1107vbf01</t>
+    <t>Automationjobdigital1107vbf02</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1107vbf02</t>
+    <t>Automationjobdigital1307vbf00</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1307vbf00</t>
+    <t>Automationjobdigital1307vbf01</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1307vbf01</t>
+    <t>Automationjobdigital1407vbf00</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf00</t>
+    <t>Automationjobdigital1407vbf01</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf01</t>
+    <t>Automationjobdigital1407vbf02</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf02</t>
+    <t>Automationjobdigital1407vbf04</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf04</t>
+    <t>Automationjobdigital1407vbf05</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf05</t>
+    <t>Automationjobdigital1407vbf06</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E2 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf06</t>
+    <t>Automationjobdigital1407vbf07</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E2 E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf07</t>
+    <t>Automationjobdigital1407vbf08</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf08</t>
+    <t>Automationjobdigital1407vbf10</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf10</t>
+    <t>Automationjobdigital1407vbf11</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf11</t>
+    <t>Automationjobdigital1407vbf13</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital1407vbf13</t>
+    <t>Automationjobdigital2107vbf14</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2107vbf14</t>
+    <t>Automationjobdigital2307vbf14</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2307vbf14</t>
+    <t>Automationjobdigital2307vbf37</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2307vbf37</t>
+    <t>Automationjobdigital2307vbf38</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2307vbf38</t>
+    <t>Automationjobdigital2407vbf00</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf00</t>
+    <t>Automationjobdigital2407vbf01</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf01</t>
+    <t>Automationjobdigital2407vbf02</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -239,7 +239,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>CPC</t>
+    <t>CPM</t>
   </si>
   <si>
     <t>1</t>
@@ -1258,8 +1258,8 @@
   <sheetPr/>
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf02</t>
+    <t>Automationjobdigital2407vbf03</t>
   </si>
   <si>
     <t>8</t>
@@ -1258,8 +1258,8 @@
   <sheetPr/>
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf03</t>
+    <t>Automationjobdigital2407vbf04</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf04</t>
+    <t>Automationjobdigital2407vbf05</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf05</t>
+    <t>Automationjobdigital2407vbf06</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf06</t>
+    <t>Automationjobdigital2407vbf07</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf07</t>
+    <t>Automationjobdigital2407vbf09</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf09</t>
+    <t>Automationjobdigital2407vbf10</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf10</t>
+    <t>Automationjobdigital2407vbf11</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf11</t>
+    <t>Automationjobdigital2407vbf13</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf13</t>
+    <t>Automationjobdigital2407vbf14</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf14</t>
+    <t>Automationjobdigital2407vbf15</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf15</t>
+    <t>Automationjobdigital2407vbf16</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf16</t>
+    <t>Automationjobdigital2407vbf18</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf18</t>
+    <t>Automationjobdigital2407vbf19</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf19</t>
+    <t>Automationjobdigital2407vbf20</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf20</t>
+    <t>Automationjobdigital2407vbf21</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf21</t>
+    <t>Automationjobdigital2407vbf25</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf25</t>
+    <t>Automationjobdigital2407vbf26</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf26</t>
+    <t>Automationjobdigital2407vbf27</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf27</t>
+    <t>Automationjobdigital2407vbf32</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf32</t>
+    <t>Automationjobdigital2407vbf33</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf33</t>
+    <t>Automationjobdigital2407vbf34</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf34</t>
+    <t>Automationjobdigital2407vbf35</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf35</t>
+    <t>Automationjobdigital2407vbf36</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf36</t>
+    <t>Automationjobdigital2407vbf37</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf37</t>
+    <t>Automationjobdigital2407vbf38</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf38</t>
+    <t>Automationjobdigital2407vbf39</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2407vbf39</t>
+    <t>Automationjobdigital2507vbf02</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507vbf02</t>
+    <t>Automationjobdigital2507vbf03</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital2507vbf03</t>
+    <t>Automationjobdigital3007vbf13</t>
   </si>
   <si>
     <t>8</t>
@@ -1258,7 +1258,7 @@
   <sheetPr/>
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital3007vbf13</t>
+    <t>Automationjobdigital3007vbf14</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital3007vbf14</t>
+    <t>Automationjobdigital3007vbf15</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital3007vbf15</t>
+    <t>Automationjobdigital3007vbf16</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital3007vbf16</t>
+    <t>Automationjobdigital3007vbf17</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital3007vbf17</t>
+    <t>Automationjobdigital3007vbf18</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital3007vbf18</t>
+    <t>Automationjobdigital3007vbf19</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital3007vbf19</t>
+    <t>Automationjobdigital3007vbf21</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital3007vbf21</t>
+    <t>Automationjobdigital0108vbf21</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0108vbf21</t>
+    <t>Automationjobdigital0308vbf21</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0308vbf21</t>
+    <t>Automationjobdigital0408vbf21</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0408vbf21</t>
+    <t>Automationjobdigital0408vbf22</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0408vbf22</t>
+    <t>Automationjobdigital0508vbf22</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf22</t>
+    <t>Automationjobdigital0508vbf23</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf23</t>
+    <t>Automationjobdigital0508vbf24</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf24</t>
+    <t>Automationjobdigital0508vbf25</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf25</t>
+    <t>Automationjobdigital0508vbf26</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf26</t>
+    <t>Automationjobdigital0508vbf27</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf27</t>
+    <t>Automationjobdigital0508vbf28</t>
   </si>
   <si>
     <t>8</t>
@@ -1258,8 +1258,8 @@
   <sheetPr/>
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1715,7 +1715,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" display="avinashp@mediawareonline.com"/>
+    <hyperlink ref="AB2" r:id="rId1" display="avinashp@mediawareonline.com" tooltip="mailto:avinashp@mediawareonline.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf28</t>
+    <t>Automationjobdigital0508vbf29</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf29</t>
+    <t>Automationjobdigital0508vbf30</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf30</t>
+    <t>Automationjobdigital0508vbf31</t>
   </si>
   <si>
     <t>8</t>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf31</t>
+    <t>Automationjobdigital0508vbf32</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf32</t>
+    <t>Automationjobdigital0508vbf35</t>
   </si>
   <si>
     <t>8</t>
@@ -248,7 +248,7 @@
     <t>1000</t>
   </si>
   <si>
-    <t>facebook ireland limited</t>
+    <t>facebook ireland</t>
   </si>
   <si>
     <t>Ad-Network</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0508vbf35</t>
+    <t>Automationjobdigital0608vbf00</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -203,7 +203,7 @@
     <t>DIATAAL</t>
   </si>
   <si>
-    <t>Automationjobdigital0608vbf00</t>
+    <t>Automationjobdigital0708vbf00</t>
   </si>
   <si>
     <t>8</t>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:BO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/DigitalproVBF.xlsx
+++ b/DigitalproVBF.xlsx
@@ -239,7 +239,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>CPM</t>
+    <t>CPC</t>
   </si>
   <si>
     <t>1</t>
@@ -1258,8 +1258,8 @@
   <sheetPr/>
   <dimension ref="A1:BO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
